--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_151.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_151.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,358 +488,354 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G#:min/B', 'C#:maj', 'C#:maj/G#']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.68, 11.08)]</t>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[('0:00:19.520000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[('0:00:49.060000', '0:00:59.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -843,362 +844,328 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.08363903154805576</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[('0:00:52.750498', '0:00:59.809365')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1458333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.58, 46.78)]</t>
+          <t>[['G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:01:00.180884', '0:01:08.841927')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:10.090897', '0:00:16.615704')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(25.26, 36.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(49.06, 59.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
